--- a/03_Analysis and design/Party_Organisation.xlsx
+++ b/03_Analysis and design/Party_Organisation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -67,17 +67,6 @@
     <t>Represents a collection of people organized together into a community or other social, commercial or political structure. The group has some common purpose or reason for existence which goes beyond the set of people belonging to it and can act as an Agent. Organizations are often decomposable into hierarchical structures</t>
   </si>
   <si>
-    <t>SubClass of: foaf:Agent
-Equivalent class: foaf:Organization
-org:subOrganizationOf org:Organization
-org:transitiveSubOrganizationOf org:Organization
-org:hasSuborganizationOf org:Organization
-org:Purpose Text
-org:Classification skos:Concept
-org:Identifier skos:Notation
-org:linkedTo org:Organization</t>
-  </si>
-  <si>
     <t>UBL</t>
   </si>
   <si>
@@ -263,9 +252,6 @@
   </si>
   <si>
     <t>PROPERTIES</t>
-  </si>
-  <si>
-    <t>foaf:weblog</t>
   </si>
   <si>
     <t>MarkCareIndicator -&gt; Indicator
@@ -292,6 +278,21 @@
   </si>
   <si>
     <t>ubl:EndpointID</t>
+  </si>
+  <si>
+    <t>SubClass of: foaf:Agent
+Equivalent class: foaf:Organization
+org:subOrganizationOf org:Organization
+org:transitiveSubOrganizationOf org:Organization
+org:hasSuborganizationOf org:Organization
+org:Purpose Text
+org:Classification skos:Concept
+org:Identifier skos:Notation
+org:linkedTo org:Organization
+org:hasSite org:Site</t>
+  </si>
+  <si>
+    <t>org:hasSite (org:Site)</t>
   </si>
 </sst>
 </file>
@@ -356,27 +357,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -397,6 +377,27 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -411,16 +412,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:H6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:H6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H6"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ONTOLOGY" dataDxfId="8"/>
-    <tableColumn id="2" name="ELEMENT" dataDxfId="7"/>
-    <tableColumn id="3" name="URL DOCUMENTATION" dataDxfId="6"/>
-    <tableColumn id="4" name="DEFINITION" dataDxfId="5"/>
-    <tableColumn id="5" name="PROPERTIES" dataDxfId="4"/>
-    <tableColumn id="6" name="PROS" dataDxfId="3"/>
-    <tableColumn id="7" name="CONS" dataDxfId="2"/>
+    <tableColumn id="1" name="ONTOLOGY" dataDxfId="6"/>
+    <tableColumn id="2" name="ELEMENT" dataDxfId="5"/>
+    <tableColumn id="3" name="URL DOCUMENTATION" dataDxfId="4"/>
+    <tableColumn id="4" name="DEFINITION" dataDxfId="3"/>
+    <tableColumn id="5" name="PROPERTIES" dataDxfId="2"/>
+    <tableColumn id="6" name="PROS" dataDxfId="1"/>
+    <tableColumn id="7" name="CONS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -728,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,25 +747,25 @@
   <sheetData>
     <row r="2" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -782,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -802,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -822,32 +825,32 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +881,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -887,197 +890,197 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1108,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1113,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1129,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1137,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/03_Analysis and design/Party_Organisation.xlsx
+++ b/03_Analysis and design/Party_Organisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>PPROC</t>
   </si>
@@ -293,6 +293,75 @@
   </si>
   <si>
     <t>org:hasSite (org:Site)</t>
+  </si>
+  <si>
+    <t>rov:RegisteredOrganization</t>
+  </si>
+  <si>
+    <t>ubl:PartyLegalEntity</t>
+  </si>
+  <si>
+    <t>PartyName (Name)</t>
+  </si>
+  <si>
+    <t>CompanyID (Identifier)</t>
+  </si>
+  <si>
+    <t>RegistrationDate (Date)</t>
+  </si>
+  <si>
+    <t>RegistrationExpirationDate (Date)</t>
+  </si>
+  <si>
+    <t>CompanyLegalFormCode (Code)</t>
+  </si>
+  <si>
+    <t>CompanyLegalForm (Text)</t>
+  </si>
+  <si>
+    <t>SolePropietorshipIndicator (Indicator)</t>
+  </si>
+  <si>
+    <t>CompanyLiquidationStatusCode (Code)</t>
+  </si>
+  <si>
+    <t>CorporateStockAmount (Amount)</t>
+  </si>
+  <si>
+    <t>FullyPaidSharesIndicator (Indicator)</t>
+  </si>
+  <si>
+    <t>RegistrationAddress (Address)</t>
+  </si>
+  <si>
+    <t>CorporateRegistrationScheme (CorporateRegistration)</t>
+  </si>
+  <si>
+    <t>HeadOfficeParty (Party)</t>
+  </si>
+  <si>
+    <t>ShareholderParty (ShareholderParty)</t>
+  </si>
+  <si>
+    <t>rov:LegalName</t>
+  </si>
+  <si>
+    <t>skos:altLabel</t>
+  </si>
+  <si>
+    <t>adms:Identifier</t>
+  </si>
+  <si>
+    <t>rov:registration (Identifier)</t>
+  </si>
+  <si>
+    <t>rov:orgStatus</t>
+  </si>
+  <si>
+    <t>rov:orgType</t>
+  </si>
+  <si>
+    <t>rov:orgActivity</t>
   </si>
 </sst>
 </file>
@@ -437,6 +506,17 @@
     <tableColumn id="6" name="ubl:Party"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C39:D57" totalsRowShown="0">
+  <autoFilter ref="C39:D57"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="rov:RegisteredOrganization"/>
+    <tableColumn id="2" name="ubl:PartyLegalEntity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -864,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1163,118 @@
         <v>75</v>
       </c>
     </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
